--- a/biology/Médecine/James_A._Levine/James_A._Levine.xlsx
+++ b/biology/Médecine/James_A._Levine/James_A._Levine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James A. Levine est un médecin britannique né en 1963 en Angleterre. Il est professeur émérite d'endocrinologie et de recherche en nutrition à la clinique Mayo aux États-Unis.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il étudie la médecine à Cambridge, puis à l'Université de Londres (jusqu'en 1988). Il va ensuite à la clinique Mayo, où il devient résident en médecine interne (1992-1995), Fellow en endocrinologie  (1995-1998), professeur, puis directeur de l'institut d'obésité (2014-2017). Pendant ce long séjour à Mayo, il fait des courts séjours dans d'autres universités, comme en 2010 où il va à l'université Case Western Reserve[1]. 
-Il co-dirige l'institut Solutions pour l'obésité et préside 5 chaires permanentes à l'Université d'État de l'Arizona[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il étudie la médecine à Cambridge, puis à l'Université de Londres (jusqu'en 1988). Il va ensuite à la clinique Mayo, où il devient résident en médecine interne (1992-1995), Fellow en endocrinologie  (1995-1998), professeur, puis directeur de l'institut d'obésité (2014-2017). Pendant ce long séjour à Mayo, il fait des courts séjours dans d'autres universités, comme en 2010 où il va à l'université Case Western Reserve. 
+Il co-dirige l'institut Solutions pour l'obésité et préside 5 chaires permanentes à l'Université d'État de l'Arizona.
 Il est expert auprès des Nations unies. Il est aussi membre d'un comité consultatif sur le cancer auprès du président des Etats-Unis. Il est membre du Comité du Centre international pour enfants disparus et sexuellement exploités.
-Depuis novembre 2017, il préside la Fondation Ipsen à Paris, et dirige l'Institut des maladies rares de cette fondation[2].
+Depuis novembre 2017, il préside la Fondation Ipsen à Paris, et dirige l'Institut des maladies rares de cette fondation.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Innovation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il invente le tapis roulant de bureau en 2005, destiné à permettre un travail sur ordinateur tout en restant debout et en dépensant des calories[3],[4],[5],[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il invente le tapis roulant de bureau en 2005, destiné à permettre un travail sur ordinateur tout en restant debout et en dépensant des calories.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Livres de vulgarisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Move a Little, Lose a Lot, avec Selene Yeager, Harmony; 1re édition (2009),  (ISBN 978-0307408556)
-Get Up!: Why Your Chair is Killing You and What You Can Do About It, St. Martin's Press (2014),  (ISBN 978-1137278999)Ce livre est partiellement auto-biographique : l'auteur décrit comment il est sorti de l'obésité dans sa jeunesse, après un divorce suivi d'une dépression[6],[7],[8].</t>
+Get Up!: Why Your Chair is Killing You and What You Can Do About It, St. Martin's Press (2014),  (ISBN 978-1137278999)Ce livre est partiellement auto-biographique : l'auteur décrit comment il est sorti de l'obésité dans sa jeunesse, après un divorce suivi d'une dépression.</t>
         </is>
       </c>
     </row>
@@ -607,9 +625,11 @@
           <t>Romans</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Il est l’auteur de 2 romans, dont le plus connu est The Blue Note, traduit dans une vingtaine de langues et salué par la critique en France[9],[10],[11].  
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Il est l’auteur de 2 romans, dont le plus connu est The Blue Note, traduit dans une vingtaine de langues et salué par la critique en France.  
 The Blue Note,  (ISBN 9780385528726). Traduction française : Le Cahier bleu, Buchet-Chastel, 2010.
 Bingo’s Run , Randomhouse, 2014,  (ISBN 9781400068838). Traduction française : Bingo's Run, Piranha, 2015,  (ISBN 9782371190122).</t>
         </is>
